--- a/results/I3_N5_M2_T45_C150_DepCentral_s2_P3_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s2_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>581.4862428780827</v>
+        <v>1787.762294422648</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.42908392284503</v>
+        <v>22.10310020474523</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.624052984133808</v>
+        <v>5.475316469592284</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.501211939377871</v>
+        <v>5.134510687494965</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>460.3999999999935</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.77999999999999</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>38.80648056830877</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30.66483080554379</v>
+        <v>39.47131137385256</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32.99312545677591</v>
+        <v>4.82817771006826</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>41.48326856299774</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>35.45653196483993</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.82130316684417</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1099,15 +1099,113 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1210,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>40.97499999999985</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
@@ -1221,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>34.4</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>36.46999999999986</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10">
@@ -1243,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>35.41999999999985</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -1254,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>39.46999999999986</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
@@ -1265,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>152.2400000000004</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13">
@@ -1276,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>150.0150000000004</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14">
@@ -1287,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>153.1550000000004</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
@@ -1298,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>152.2950000000004</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16">
@@ -1309,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>155.3900000000004</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17">
@@ -1320,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>193.9599999999993</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1331,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>200.6799999999994</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1342,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>178.3549999999994</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1353,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>197.3549999999994</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1364,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>196.7549999999994</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1375,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>152.79</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -1386,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.965</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1397,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>140.495</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -1408,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>149.705</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -1419,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>151.435</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -1430,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000073</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28">
@@ -1441,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000000073</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29">
@@ -1452,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000073</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30">
@@ -1463,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000073</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31">
@@ -1474,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76000000000073</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32">
@@ -1485,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>152.2400000000004</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33">
@@ -1496,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>150.0150000000004</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34">
@@ -1507,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>153.1550000000004</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35">
@@ -1518,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>152.2950000000004</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36">
@@ -1529,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>155.3900000000004</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37">
@@ -1540,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>193.9599999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1551,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>200.6799999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1562,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.3549999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1573,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>197.3549999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1584,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>196.7549999999994</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1631,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.24</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -1642,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.015</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4">
@@ -1653,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3.155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
@@ -1664,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2.295</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
@@ -1675,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5.39</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
@@ -1686,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>43.95999999999933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1697,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>50.67999999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1708,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>28.35499999999936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1719,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>47.35499999999936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1730,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>46.75499999999937</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1788,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1799,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1810,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1821,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1887,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1898,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1909,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1920,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1931,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1942,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1953,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1964,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1975,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1986,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1997,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2008,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2019,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2030,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2041,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2055,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2082,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2093,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2104,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2115,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2126,7 +2224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2137,7 +2235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2148,7 +2246,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2159,7 +2257,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2170,7 +2268,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2181,7 +2279,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2192,7 +2290,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2203,7 +2301,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2214,12 +2312,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
